--- a/docs/example_be/data/tableModel_Water_be.xlsx
+++ b/docs/example_be/data/tableModel_Water_be.xlsx
@@ -517,7 +517,7 @@
         <v>0.1117394554908472</v>
       </c>
       <c r="D3" s="2">
-        <v>0.8256552396324699</v>
+        <v>0.8256552396326698</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>15</v>
@@ -706,7 +706,7 @@
         <v>0.1117394554908472</v>
       </c>
       <c r="D3" s="2">
-        <v>0.8256552396324699</v>
+        <v>0.8256552396326698</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>15</v>
@@ -895,7 +895,7 @@
         <v>0.1117394554908472</v>
       </c>
       <c r="D3" s="2">
-        <v>0.8256552396324699</v>
+        <v>0.8256552396326698</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>15</v>
@@ -1084,7 +1084,7 @@
         <v>0.1117394554908472</v>
       </c>
       <c r="D3" s="2">
-        <v>0.8256552396324699</v>
+        <v>0.8256552396326698</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>15</v>
@@ -1273,7 +1273,7 @@
         <v>0.1117394554908472</v>
       </c>
       <c r="D3" s="2">
-        <v>0.8256552396324699</v>
+        <v>0.8256552396326698</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>15</v>
@@ -1462,7 +1462,7 @@
         <v>0.1117394554908472</v>
       </c>
       <c r="D3" s="2">
-        <v>0.8256552396324699</v>
+        <v>0.8256552396326698</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>15</v>
@@ -1651,7 +1651,7 @@
         <v>0.1117394554908472</v>
       </c>
       <c r="D3" s="2">
-        <v>0.8256552396324699</v>
+        <v>0.8256552396326698</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>15</v>
@@ -1840,7 +1840,7 @@
         <v>0.1117394554908472</v>
       </c>
       <c r="D3" s="2">
-        <v>0.8256552396324699</v>
+        <v>0.8256552396326698</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>15</v>
@@ -2029,7 +2029,7 @@
         <v>0.1117394554908472</v>
       </c>
       <c r="D3" s="2">
-        <v>0.8256552396324699</v>
+        <v>0.82565523963267</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>15</v>
@@ -2218,7 +2218,7 @@
         <v>0.1117394554908472</v>
       </c>
       <c r="D3" s="2">
-        <v>0.8256552396324699</v>
+        <v>0.8256552396326698</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>15</v>
